--- a/spliced/struggle/2023-04-06_17-42-32/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-42-32/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00534507073462</v>
+        <v>0.0036651915870606</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0088575463742017</v>
+        <v>-0.0503963828086853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0045814891345798</v>
+        <v>0.0389426611363887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0036651915870606</v>
+        <v>-1.588860511779785</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0503963828086853</v>
+        <v>-2.905885934829712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0389426611363887</v>
+        <v>0.6783658266067505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.588860511779785</v>
+        <v>-0.9424123764038086</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.905885934829712</v>
+        <v>-3.084411382675171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6783658266067505</v>
+        <v>0.4729624092578888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9424123764038086</v>
+        <v>0.2102903574705124</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.084411382675171</v>
+        <v>-1.237612962722778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4729624092578888</v>
+        <v>0.2101376503705978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2102903574705124</v>
+        <v>-0.4138612151145935</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.237612962722778</v>
+        <v>-0.9240863919258118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2101376503705978</v>
+        <v>0.252134621143341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4138612151145935</v>
+        <v>0.432645320892334</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9240863919258118</v>
+        <v>1.750434398651123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.252134621143341</v>
+        <v>-0.1994474977254867</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.432645320892334</v>
+        <v>1.822669148445129</v>
       </c>
       <c r="B8" t="n">
-        <v>1.750434398651123</v>
+        <v>5.886908531188965</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1994474977254867</v>
+        <v>-2.078774452209473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.822669148445129</v>
+        <v>0.7883216142654419</v>
       </c>
       <c r="B9" t="n">
-        <v>5.886908531188965</v>
+        <v>2.360841512680054</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.078774452209473</v>
+        <v>1.160491228103638</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7883216142654419</v>
+        <v>0.5829181671142578</v>
       </c>
       <c r="B10" t="n">
-        <v>2.360841512680054</v>
+        <v>1.261283993721008</v>
       </c>
       <c r="C10" t="n">
-        <v>1.160491228103638</v>
+        <v>0.6953173875808716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5829181671142578</v>
+        <v>-0.3068070709705353</v>
       </c>
       <c r="B11" t="n">
-        <v>1.261283993721008</v>
+        <v>1.792431354522705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6953173875808716</v>
+        <v>-0.2423607856035232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.3068070709705353</v>
+        <v>0.2667953968048095</v>
       </c>
       <c r="B12" t="n">
-        <v>1.792431354522705</v>
+        <v>-0.7637342810630798</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2423607856035232</v>
+        <v>0.0548251569271087</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2667953968048095</v>
+        <v>-1.207069754600525</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.7637342810630798</v>
+        <v>-6.127589225769043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0548251569271087</v>
+        <v>-1.29213273525238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.207069754600525</v>
+        <v>-1.138041973114014</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.127589225769043</v>
+        <v>-3.366478443145752</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.29213273525238</v>
+        <v>0.9393580555915833</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.138041973114014</v>
+        <v>1.038929104804993</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.366478443145752</v>
+        <v>-0.7336491346359253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9393580555915833</v>
+        <v>-1.004567861557007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.038929104804993</v>
+        <v>-0.5413793325424194</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.7336491346359253</v>
+        <v>-1.692554831504822</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.004567861557007</v>
+        <v>-0.2292271852493286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5413793325424194</v>
+        <v>-0.3520110845565796</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.692554831504822</v>
+        <v>0.6711881756782532</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2292271852493286</v>
+        <v>-0.102472648024559</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.3520110845565796</v>
+        <v>2.986520290374756</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6711881756782532</v>
+        <v>4.694652080535889</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.102472648024559</v>
+        <v>0.0166460778564214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.986520290374756</v>
+        <v>1.599092483520508</v>
       </c>
       <c r="B19" t="n">
-        <v>4.694652080535889</v>
+        <v>4.835456371307373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0166460778564214</v>
+        <v>1.327257513999939</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.599092483520508</v>
+        <v>-0.3246748745441437</v>
       </c>
       <c r="B20" t="n">
-        <v>4.835456371307373</v>
+        <v>0.3605632185935974</v>
       </c>
       <c r="C20" t="n">
-        <v>1.327257513999939</v>
+        <v>0.3962988257408142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.3246748745441437</v>
+        <v>0.05283984541893</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3605632185935974</v>
+        <v>0.2293798923492431</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3962988257408142</v>
+        <v>-0.2738203406333923</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-42-32/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-42-32/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0036651915870606</v>
+        <v>-0.0056505035609006</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0503963828086853</v>
+        <v>-0.007177666760981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0389426611363887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.588860511779785</v>
+        <v>-0.0161879286170005</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.905885934829712</v>
+        <v>0.0122173046693205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6783658266067505</v>
+        <v>-0.0047342055477201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.9424123764038086</v>
+        <v>0.0029016099870204</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.084411382675171</v>
+        <v>-0.0010690141934901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4729624092578888</v>
+        <v>-0.009468411095440299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2102903574705124</v>
+        <v>0.00534507073462</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.237612962722778</v>
+        <v>0.0088575463742017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2101376503705978</v>
+        <v>0.0045814891345798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.4138612151145935</v>
+        <v>0.0036651915870606</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9240863919258118</v>
+        <v>-0.0503963828086853</v>
       </c>
       <c r="C6" t="n">
-        <v>0.252134621143341</v>
+        <v>0.0389426611363887</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.432645320892334</v>
+        <v>-1.588860511779785</v>
       </c>
       <c r="B7" t="n">
-        <v>1.750434398651123</v>
+        <v>-2.905885934829712</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1994474977254867</v>
+        <v>0.6783658266067505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.822669148445129</v>
+        <v>-0.9424123764038086</v>
       </c>
       <c r="B8" t="n">
-        <v>5.886908531188965</v>
+        <v>-3.084411382675171</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.078774452209473</v>
+        <v>0.4729624092578888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7883216142654419</v>
+        <v>0.2102903574705124</v>
       </c>
       <c r="B9" t="n">
-        <v>2.360841512680054</v>
+        <v>-1.237612962722778</v>
       </c>
       <c r="C9" t="n">
-        <v>1.160491228103638</v>
+        <v>0.2101376503705978</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5829181671142578</v>
+        <v>-0.4138612151145935</v>
       </c>
       <c r="B10" t="n">
-        <v>1.261283993721008</v>
+        <v>-0.9240863919258118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6953173875808716</v>
+        <v>0.252134621143341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3068070709705353</v>
+        <v>0.432645320892334</v>
       </c>
       <c r="B11" t="n">
-        <v>1.792431354522705</v>
+        <v>1.750434398651123</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2423607856035232</v>
+        <v>-0.1994474977254867</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2667953968048095</v>
+        <v>1.822669148445129</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7637342810630798</v>
+        <v>5.886908531188965</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0548251569271087</v>
+        <v>-2.078774452209473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.207069754600525</v>
+        <v>0.7883216142654419</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.127589225769043</v>
+        <v>2.360841512680054</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.29213273525238</v>
+        <v>1.160491228103638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.138041973114014</v>
+        <v>0.5829181671142578</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.366478443145752</v>
+        <v>1.261283993721008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9393580555915833</v>
+        <v>0.6953173875808716</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.038929104804993</v>
+        <v>-0.3068070709705353</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7336491346359253</v>
+        <v>1.792431354522705</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.004567861557007</v>
+        <v>-0.2423607856035232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.5413793325424194</v>
+        <v>0.2667953968048095</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.692554831504822</v>
+        <v>-0.7637342810630798</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2292271852493286</v>
+        <v>0.0548251569271087</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.3520110845565796</v>
+        <v>-1.207069754600525</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6711881756782532</v>
+        <v>-6.127589225769043</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.102472648024559</v>
+        <v>-1.29213273525238</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.986520290374756</v>
+        <v>-1.138041973114014</v>
       </c>
       <c r="B18" t="n">
-        <v>4.694652080535889</v>
+        <v>-3.366478443145752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0166460778564214</v>
+        <v>0.9393580555915833</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.599092483520508</v>
+        <v>1.038929104804993</v>
       </c>
       <c r="B19" t="n">
-        <v>4.835456371307373</v>
+        <v>-0.7336491346359253</v>
       </c>
       <c r="C19" t="n">
-        <v>1.327257513999939</v>
+        <v>-1.004567861557007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.3246748745441437</v>
+        <v>-0.5413793325424194</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3605632185935974</v>
+        <v>-1.692554831504822</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3962988257408142</v>
+        <v>-0.2292271852493286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.3520110845565796</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6711881756782532</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.102472648024559</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.986520290374756</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.694652080535889</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0166460778564214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.599092483520508</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.835456371307373</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.327257513999939</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.3246748745441437</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3605632185935974</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3962988257408142</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>0.05283984541893</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>0.2293798923492431</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>-0.2738203406333923</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.6475171446800232</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.2813034355640411</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0232128798961639</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1372919678688049</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.705674886703491</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5198463201522827</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.6478226184844971</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2128865420818328</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0656680166721344</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.1000291854143142</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1372919678688049</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1838704347610473</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2654209434986114</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0520762614905834</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0438295826315879</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0809396430850029</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3397938013076782</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0826195254921913</v>
       </c>
     </row>
   </sheetData>
